--- a/data/trans_orig/P74B2S2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{583EDC05-E38A-4127-9A24-1FA4492495F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CD8B242-7983-4CC4-82E3-A4885F3E635B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{65B83935-001E-4F9E-8285-BF1B8E609A6B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{407B231A-C1A6-4383-B5F7-47F001E3E759}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -98,22 +98,22 @@
     <t>4,98%</t>
   </si>
   <si>
-    <t>15,92%</t>
+    <t>15,88%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>13,85%</t>
+    <t>15,17%</t>
   </si>
   <si>
     <t>16,41%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
   </si>
   <si>
     <t>14,47%</t>
@@ -122,7 +122,7 @@
     <t>6,24%</t>
   </si>
   <si>
-    <t>28,01%</t>
+    <t>26,84%</t>
   </si>
   <si>
     <t>4,55%</t>
@@ -143,19 +143,19 @@
     <t>78,61%</t>
   </si>
   <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
   </si>
   <si>
     <t>81,14%</t>
   </si>
   <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -179,7 +179,7 @@
     <t>7,92%</t>
   </si>
   <si>
-    <t>34,4%</t>
+    <t>34,45%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -194,7 +194,7 @@
     <t>92,08%</t>
   </si>
   <si>
-    <t>65,6%</t>
+    <t>65,55%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -203,118 +203,121 @@
     <t>23,76%</t>
   </si>
   <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>6,16%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
     <t>12,73%</t>
   </si>
   <si>
-    <t>38,37%</t>
+    <t>39,66%</t>
   </si>
   <si>
     <t>9,31%</t>
   </si>
   <si>
-    <t>29,13%</t>
+    <t>31,02%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>27,45%</t>
+    <t>29,44%</t>
   </si>
   <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>21,32%</t>
+    <t>20,33%</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -329,19 +332,19 @@
     <t>78,4%</t>
   </si>
   <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
   </si>
   <si>
     <t>84,21%</t>
   </si>
   <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -350,37 +353,37 @@
     <t>15,49%</t>
   </si>
   <si>
-    <t>64,58%</t>
+    <t>64,7%</t>
   </si>
   <si>
     <t>4,42%</t>
   </si>
   <si>
-    <t>25,92%</t>
+    <t>21,76%</t>
   </si>
   <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>19,53%</t>
+    <t>20,52%</t>
   </si>
   <si>
     <t>11,13%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
   </si>
   <si>
     <t>9,03%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
   </si>
   <si>
     <t>5,78%</t>
@@ -389,25 +392,25 @@
     <t>84,51%</t>
   </si>
   <si>
-    <t>35,42%</t>
+    <t>35,3%</t>
   </si>
   <si>
     <t>84,45%</t>
   </si>
   <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
   </si>
   <si>
     <t>84,46%</t>
   </si>
   <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -416,52 +419,52 @@
     <t>9,26%</t>
   </si>
   <si>
-    <t>29,54%</t>
+    <t>28,86%</t>
   </si>
   <si>
     <t>6,21%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
   </si>
   <si>
     <t>7,03%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
   </si>
   <si>
     <t>13,46%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
   </si>
   <si>
     <t>11,28%</t>
   </si>
   <si>
-    <t>22,44%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
   </si>
   <si>
     <t>11,87%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
   </si>
   <si>
     <t>2,49%</t>
@@ -470,28 +473,28 @@
     <t>77,28%</t>
   </si>
   <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
   </si>
   <si>
     <t>82,51%</t>
   </si>
   <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
   </si>
   <si>
     <t>81,11%</t>
   </si>
   <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -500,58 +503,58 @@
     <t>18,26%</t>
   </si>
   <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
   </si>
   <si>
     <t>4,24%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
   </si>
   <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>32,16%</t>
+    <t>37,37%</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>25,19%</t>
+    <t>25,15%</t>
   </si>
   <si>
     <t>2,74%</t>
@@ -560,94 +563,91 @@
     <t>1,19%</t>
   </si>
   <si>
-    <t>7,1%</t>
+    <t>7,34%</t>
   </si>
   <si>
     <t>62,91%</t>
   </si>
   <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
   </si>
   <si>
     <t>80,88%</t>
   </si>
   <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
   </si>
   <si>
     <t>77,42%</t>
   </si>
   <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
   </si>
   <si>
     <t>13,75%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
+    <t>13,13%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
   </si>
   <si>
     <t>11,84%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>12,95%</t>
+    <t>12,19%</t>
   </si>
   <si>
     <t>0,68%</t>
@@ -656,34 +656,34 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>3,24%</t>
+    <t>3,3%</t>
   </si>
   <si>
     <t>76,81%</t>
   </si>
   <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
   </si>
   <si>
     <t>79,66%</t>
   </si>
   <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
   </si>
   <si>
     <t>79,0%</t>
   </si>
   <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1098,7 +1098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE79EA23-32CD-487E-9CE2-622454AB0313}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A53B18-771B-41A6-B2F3-A8ECE7AF2B42}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2226,7 +2226,7 @@
         <v>17</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -2235,13 +2235,13 @@
         <v>2768</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -2250,13 +2250,13 @@
         <v>2768</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,7 +2277,7 @@
         <v>17</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2286,13 +2286,13 @@
         <v>1928</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2301,13 +2301,13 @@
         <v>1928</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,7 +2328,7 @@
         <v>17</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,7 +2376,7 @@
         <v>31</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>33</v>
@@ -2388,13 +2388,13 @@
         <v>17048</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M27" s="7">
         <v>22</v>
@@ -2403,13 +2403,13 @@
         <v>25047</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,7 +2465,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2477,13 +2477,13 @@
         <v>959</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2492,13 +2492,13 @@
         <v>1176</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -2507,13 +2507,13 @@
         <v>2135</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,7 +2534,7 @@
         <v>17</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2543,13 +2543,13 @@
         <v>2958</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -2558,13 +2558,13 @@
         <v>2958</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>17</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>17</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,10 +2630,10 @@
         <v>5229</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>31</v>
@@ -2645,13 +2645,13 @@
         <v>22450</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M32" s="7">
         <v>27</v>
@@ -2660,13 +2660,13 @@
         <v>27679</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,7 +2722,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2734,13 +2734,13 @@
         <v>2171</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -2749,13 +2749,13 @@
         <v>3965</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -2764,13 +2764,13 @@
         <v>6136</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,13 +2785,13 @@
         <v>3158</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H35" s="7">
         <v>6</v>
@@ -2800,13 +2800,13 @@
         <v>7206</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M35" s="7">
         <v>9</v>
@@ -2815,13 +2815,13 @@
         <v>10364</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,7 +2842,7 @@
         <v>17</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>17</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>17</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,13 +2887,13 @@
         <v>18123</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H37" s="7">
         <v>47</v>
@@ -2902,13 +2902,13 @@
         <v>52712</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M37" s="7">
         <v>62</v>
@@ -2917,13 +2917,13 @@
         <v>70836</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,7 +2979,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -2991,13 +2991,13 @@
         <v>3202</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -3006,13 +3006,13 @@
         <v>3117</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M39" s="7">
         <v>6</v>
@@ -3021,13 +3021,13 @@
         <v>6319</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3042,13 @@
         <v>2217</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H40" s="7">
         <v>10</v>
@@ -3057,13 +3057,13 @@
         <v>10934</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M40" s="7">
         <v>12</v>
@@ -3072,13 +3072,13 @@
         <v>13151</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,13 +3093,13 @@
         <v>1085</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>17</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -3123,13 +3123,13 @@
         <v>1086</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,13 +3144,13 @@
         <v>11033</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H42" s="7">
         <v>56</v>
@@ -3159,13 +3159,13 @@
         <v>59430</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M42" s="7">
         <v>66</v>
@@ -3174,13 +3174,13 @@
         <v>70464</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3248,13 @@
         <v>12584</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H44" s="7">
         <v>17</v>
@@ -3263,13 +3263,13 @@
         <v>20664</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M44" s="7">
         <v>29</v>
@@ -3278,13 +3278,13 @@
         <v>33248</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,10 +3299,10 @@
         <v>5375</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>195</v>

--- a/data/trans_orig/P74B2S2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S2-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CD8B242-7983-4CC4-82E3-A4885F3E635B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC91EC7D-5B6A-433D-8D14-0ABD36DBD606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{407B231A-C1A6-4383-B5F7-47F001E3E759}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8E37A693-B7C7-4054-86AF-FC4A39BB262B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -98,31 +98,31 @@
     <t>4,98%</t>
   </si>
   <si>
-    <t>15,88%</t>
+    <t>15,79%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>15,17%</t>
+    <t>13,37%</t>
   </si>
   <si>
     <t>16,41%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
   </si>
   <si>
     <t>14,47%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
   </si>
   <si>
     <t>4,55%</t>
@@ -143,19 +143,19 @@
     <t>78,61%</t>
   </si>
   <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
   </si>
   <si>
     <t>81,14%</t>
   </si>
   <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -173,13 +173,13 @@
     <t>9,48%</t>
   </si>
   <si>
-    <t>40,21%</t>
+    <t>41,39%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>34,45%</t>
+    <t>34,71%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -188,13 +188,13 @@
     <t>90,52%</t>
   </si>
   <si>
-    <t>59,79%</t>
+    <t>58,61%</t>
   </si>
   <si>
     <t>92,08%</t>
   </si>
   <si>
-    <t>65,55%</t>
+    <t>65,29%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -203,28 +203,28 @@
     <t>23,76%</t>
   </si>
   <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>16,49%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
   </si>
   <si>
     <t>8,64%</t>
@@ -233,25 +233,25 @@
     <t>16,89%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
   </si>
   <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>39,09%</t>
+    <t>33,19%</t>
   </si>
   <si>
     <t>3,75%</t>
@@ -260,34 +260,34 @@
     <t>2,63%</t>
   </si>
   <si>
-    <t>12,95%</t>
+    <t>15,67%</t>
   </si>
   <si>
     <t>67,97%</t>
   </si>
   <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
   </si>
   <si>
     <t>70,01%</t>
   </si>
   <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
   </si>
   <si>
     <t>69,37%</t>
   </si>
   <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -299,19 +299,19 @@
     <t>12,73%</t>
   </si>
   <si>
-    <t>39,66%</t>
+    <t>40,85%</t>
   </si>
   <si>
     <t>9,31%</t>
   </si>
   <si>
-    <t>31,02%</t>
+    <t>29,28%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>29,44%</t>
+    <t>32,13%</t>
   </si>
   <si>
     <t>6,48%</t>
@@ -332,19 +332,19 @@
     <t>78,4%</t>
   </si>
   <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
   </si>
   <si>
     <t>84,21%</t>
   </si>
   <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -353,148 +353,151 @@
     <t>15,49%</t>
   </si>
   <si>
-    <t>64,7%</t>
+    <t>64,87%</t>
   </si>
   <si>
     <t>4,42%</t>
   </si>
   <si>
-    <t>21,76%</t>
+    <t>21,64%</t>
   </si>
   <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>20,52%</t>
+    <t>20,51%</t>
   </si>
   <si>
     <t>11,13%</t>
   </si>
   <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
     <t>2,49%</t>
   </si>
   <si>
     <t>77,28%</t>
   </si>
   <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
   </si>
   <si>
     <t>82,51%</t>
   </si>
   <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
   </si>
   <si>
     <t>81,11%</t>
   </si>
   <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -503,151 +506,151 @@
     <t>18,26%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
   </si>
   <si>
     <t>4,24%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
   </si>
   <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>37,37%</t>
+    <t>38,0%</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>29,29%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>7,34%</t>
+    <t>5,98%</t>
   </si>
   <si>
     <t>62,91%</t>
   </si>
   <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
   </si>
   <si>
     <t>80,88%</t>
   </si>
   <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
   </si>
   <si>
     <t>77,42%</t>
   </si>
   <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
   </si>
   <si>
     <t>13,75%</t>
   </si>
   <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>13,13%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
   </si>
   <si>
     <t>11,84%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>12,19%</t>
+    <t>12,57%</t>
   </si>
   <si>
     <t>0,68%</t>
@@ -656,34 +659,31 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>3,3%</t>
+    <t>3,24%</t>
   </si>
   <si>
     <t>76,81%</t>
   </si>
   <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
+    <t>67,16%</t>
   </si>
   <si>
     <t>79,66%</t>
   </si>
   <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
   </si>
   <si>
     <t>79,0%</t>
   </si>
   <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1098,7 +1098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A53B18-771B-41A6-B2F3-A8ECE7AF2B42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E32CEE-3494-4250-941F-90D8ABD949B3}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2857,7 +2857,7 @@
         <v>17</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>17</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,13 +2887,13 @@
         <v>18123</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H37" s="7">
         <v>47</v>
@@ -2902,13 +2902,13 @@
         <v>52712</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M37" s="7">
         <v>62</v>
@@ -2917,13 +2917,13 @@
         <v>70836</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,7 +2979,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -2991,13 +2991,13 @@
         <v>3202</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -3006,13 +3006,13 @@
         <v>3117</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M39" s="7">
         <v>6</v>
@@ -3021,13 +3021,13 @@
         <v>6319</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3042,13 @@
         <v>2217</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H40" s="7">
         <v>10</v>
@@ -3057,13 +3057,13 @@
         <v>10934</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M40" s="7">
         <v>12</v>
@@ -3072,13 +3072,13 @@
         <v>13151</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,13 +3093,13 @@
         <v>1085</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>17</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -3302,10 +3302,10 @@
         <v>194</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H45" s="7">
         <v>36</v>
@@ -3314,13 +3314,13 @@
         <v>41853</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M45" s="7">
         <v>41</v>
@@ -3329,13 +3329,13 @@
         <v>47228</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3350,13 @@
         <v>3260</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3371,7 +3371,7 @@
         <v>17</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M46" s="7">
         <v>2</v>
@@ -3380,13 +3380,13 @@
         <v>3260</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3401,13 @@
         <v>70291</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="H47" s="7">
         <v>228</v>
